--- a/admin/backend/data/template/tmpl.xlsx
+++ b/admin/backend/data/template/tmpl.xlsx
@@ -100,13 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -165,27 +165,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -194,15 +194,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -215,10 +206,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -541,23 +532,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="21" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="21" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="21" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="21" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="31.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
@@ -625,621 +616,621 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="Q22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
       <c r="Q28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="13">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.05" customFormat="1" s="13">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="19"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.05" customFormat="1" s="10">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
